--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,799 +436,1148 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>方向</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>買入價</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>成交價</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>股數</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>成本</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>持股數(收盤後)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>單筆實現損益</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>期末價</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>期末持股</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>最終市值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>獲利</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>報酬率%</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>累計實現損益</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>未實現損益</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>總報酬</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30.11473083496094</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>21.28233909606934</v>
       </c>
       <c r="D2" t="n">
-        <v>993.7861175537109</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>61.79999923706055</v>
+        <v>21.28233909606934</v>
       </c>
       <c r="F2" t="n">
-        <v>2039.399974822998</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1045.613857269287</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>105.215180490059</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-08-22</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29.64039421081543</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>21.15464401245117</v>
       </c>
       <c r="D3" t="n">
-        <v>978.1330089569092</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>61.79999923706055</v>
+        <v>21.15464401245117</v>
       </c>
       <c r="F3" t="n">
-        <v>2039.399974822998</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1061.266965866089</v>
+        <v>-0.1276950836181676</v>
       </c>
       <c r="H3" t="n">
-        <v>108.4992486858034</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>29.86101341247558</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>20.38848304748535</v>
       </c>
       <c r="D4" t="n">
-        <v>985.4134426116942</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>61.79999923706055</v>
+        <v>20.38848304748535</v>
       </c>
       <c r="F4" t="n">
-        <v>2039.399974822998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.986532211304</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>106.9588141012027</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30.74140739440918</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>21.33896446228028</v>
       </c>
       <c r="D5" t="n">
-        <v>983.7250366210938</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>61.79999923706055</v>
+        <v>21.33896446228028</v>
       </c>
       <c r="F5" t="n">
-        <v>1977.599975585938</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>993.8749389648438</v>
+        <v>0.9504814147949254</v>
       </c>
       <c r="H5" t="n">
-        <v>101.0317824560624</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29.02791404724121</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>21.99571418762207</v>
       </c>
       <c r="D6" t="n">
-        <v>986.9490776062012</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>61.79999923706055</v>
+        <v>21.99571418762207</v>
       </c>
       <c r="F6" t="n">
-        <v>2101.199974060059</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1114.250896453857</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.8985194612493</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>28.03589248657227</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>21.81615829467773</v>
       </c>
       <c r="D7" t="n">
-        <v>981.2562370300293</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>61.79999923706055</v>
+        <v>21.81615829467773</v>
       </c>
       <c r="F7" t="n">
-        <v>2162.999973297119</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1181.74373626709</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4317171877426</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>27.26933097839355</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>21.90593719482422</v>
       </c>
       <c r="D8" t="n">
-        <v>981.695915222168</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>61.79999923706055</v>
+        <v>21.90593719482422</v>
       </c>
       <c r="F8" t="n">
-        <v>2224.79997253418</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1243.104057312012</v>
+        <v>9.5367431640625e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>126.6282193942596</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25.27401542663575</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>21.86104774475098</v>
       </c>
       <c r="D9" t="n">
-        <v>985.6866016387941</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>61.79999923706055</v>
+        <v>21.86104774475098</v>
       </c>
       <c r="F9" t="n">
-        <v>2410.199970245361</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1424.513368606567</v>
+        <v>-0.04488849639892578</v>
       </c>
       <c r="H9" t="n">
-        <v>144.5199078731702</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>26.4816951751709</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>21.77126884460449</v>
       </c>
       <c r="D10" t="n">
-        <v>979.8227214813232</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>61.79999923706055</v>
+        <v>21.77126884460449</v>
       </c>
       <c r="F10" t="n">
-        <v>2286.59997177124</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1306.777250289917</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.3687433084114</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>24.04923629760743</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>21.72637939453125</v>
       </c>
       <c r="D11" t="n">
-        <v>986.0186882019044</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>61.79999923706055</v>
+        <v>21.72637939453125</v>
       </c>
       <c r="F11" t="n">
-        <v>2533.799968719482</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1547.781280517578</v>
+        <v>-0.04488945007323863</v>
       </c>
       <c r="H11" t="n">
-        <v>156.9728139068134</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.69532012939453</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>21.68148994445801</v>
       </c>
       <c r="D12" t="n">
-        <v>998.5940856933594</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>61.79999923706055</v>
+        <v>21.68148994445801</v>
       </c>
       <c r="F12" t="n">
-        <v>2719.199966430664</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1720.605880737305</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>172.3028310890332</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.71826553344727</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>22.84861183166504</v>
       </c>
       <c r="D13" t="n">
-        <v>999.6036834716797</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>61.79999923706055</v>
+        <v>22.84861183166504</v>
       </c>
       <c r="F13" t="n">
-        <v>2719.199966430664</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1719.596282958984</v>
+        <v>1.167121887207031</v>
       </c>
       <c r="H13" t="n">
-        <v>172.0278057586513</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>25.83915901184082</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>22.1303825378418</v>
       </c>
       <c r="D14" t="n">
-        <v>981.8880424499512</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>61.79999923706055</v>
+        <v>22.1303825378418</v>
       </c>
       <c r="F14" t="n">
-        <v>2348.399971008301</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1366.51192855835</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>139.171867817914</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>27.54710578918457</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>22.22016334533692</v>
       </c>
       <c r="D15" t="n">
-        <v>991.6958084106445</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>61.79999923706055</v>
+        <v>22.22016334533692</v>
       </c>
       <c r="F15" t="n">
-        <v>2224.79997253418</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1233.104164123535</v>
+        <v>0.08978080749511719</v>
       </c>
       <c r="H15" t="n">
-        <v>124.3429843774158</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>29.66351127624512</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>22.53438758850098</v>
       </c>
       <c r="D16" t="n">
-        <v>978.895872116089</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>61.79999923706055</v>
+        <v>22.53438758850098</v>
       </c>
       <c r="F16" t="n">
-        <v>2039.399974822998</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1060.504102706909</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.3367631752708</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>29.52066993713379</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>23.61172676086425</v>
       </c>
       <c r="D17" t="n">
-        <v>974.182107925415</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>61.79999923706055</v>
+        <v>23.61172676086425</v>
       </c>
       <c r="F17" t="n">
-        <v>2039.399974822998</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1065.217866897583</v>
+        <v>1.077339172363278</v>
       </c>
       <c r="H17" t="n">
-        <v>109.3448399669374</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>29.58018684387207</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>26.1191520690918</v>
       </c>
       <c r="D18" t="n">
-        <v>976.1461658477783</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>61.79999923706055</v>
+        <v>26.1191520690918</v>
       </c>
       <c r="F18" t="n">
-        <v>2039.399974822998</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1063.25380897522</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9236270320018</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>29.63970565795898</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>25.78490257263184</v>
       </c>
       <c r="D19" t="n">
-        <v>978.1102867126465</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>61.79999923706055</v>
+        <v>25.78490257263184</v>
       </c>
       <c r="F19" t="n">
-        <v>2039.399974822998</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1061.289688110352</v>
+        <v>-0.3342494964599609</v>
       </c>
       <c r="H19" t="n">
-        <v>108.5040922815836</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>31.57997131347656</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>26.54890060424805</v>
       </c>
       <c r="D20" t="n">
-        <v>978.9791107177733</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>61.79999923706055</v>
+        <v>26.54890060424805</v>
       </c>
       <c r="F20" t="n">
-        <v>1915.799976348877</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>936.8208656311036</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>95.69365223168451</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>45.0554084777832</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>32.54999923706055</v>
       </c>
       <c r="D21" t="n">
-        <v>991.2189865112305</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>61.79999923706055</v>
+        <v>32.54999923706055</v>
       </c>
       <c r="F21" t="n">
-        <v>1359.599983215332</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>368.3809967041016</v>
+        <v>6.0010986328125</v>
       </c>
       <c r="H21" t="n">
-        <v>37.16444112926885</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>41.01511383056641</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>32.59999847412109</v>
       </c>
       <c r="D22" t="n">
-        <v>984.3627319335938</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>61.79999923706055</v>
+        <v>32.59999847412109</v>
       </c>
       <c r="F22" t="n">
-        <v>1483.199981689453</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>498.8372497558594</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67616170067596</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>43.65967178344727</v>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="D23" t="n">
-        <v>960.51277923584</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>61.79999923706055</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="F23" t="n">
-        <v>1359.599983215332</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>399.0872039794921</v>
+        <v>0.8500022888183594</v>
       </c>
       <c r="H23" t="n">
-        <v>41.54939034720557</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>47.27144622802734</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>30.29999923706055</v>
       </c>
       <c r="D24" t="n">
-        <v>992.7003707885742</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>61.79999923706055</v>
+        <v>30.29999923706055</v>
       </c>
       <c r="F24" t="n">
-        <v>1297.799983978271</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>305.0996131896973</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30.7343103888774</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>45.19404602050781</v>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>30.14999961853028</v>
       </c>
       <c r="D25" t="n">
-        <v>994.2690124511719</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>61.79999923706055</v>
+        <v>30.14999961853028</v>
       </c>
       <c r="F25" t="n">
-        <v>1359.599983215332</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>365.3309707641602</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.74367461815083</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>39.91871643066406</v>
-      </c>
-      <c r="C26" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" t="n">
-        <v>997.9679107666016</v>
-      </c>
-      <c r="E26" t="n">
-        <v>61.79999923706055</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1544.999980926514</v>
-      </c>
-      <c r="G26" t="n">
-        <v>547.0320701599121</v>
-      </c>
-      <c r="H26" t="n">
-        <v>54.81459516465841</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>61.90000152587891</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16</v>
-      </c>
-      <c r="D27" t="n">
-        <v>990.4000244140625</v>
-      </c>
-      <c r="E27" t="n">
-        <v>61.79999923706055</v>
-      </c>
-      <c r="F27" t="n">
-        <v>988.7999877929688</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1.60003662109375</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.1615545821538483</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>61.34999847412109</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16</v>
-      </c>
-      <c r="D28" t="n">
-        <v>981.5999755859374</v>
-      </c>
-      <c r="E28" t="n">
-        <v>61.79999923706055</v>
-      </c>
-      <c r="F28" t="n">
-        <v>988.7999877929688</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.200012207031364</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.7334975943467732</v>
+        <v>30.39999961853028</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>60.79999923706055</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9.584102630615234</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3500003814697337</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.934103012084968</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,266 +508,266 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.28233909606934</v>
+        <v>127.6837387084961</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>21.28233909606934</v>
+        <v>893.7861709594727</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.15464401245117</v>
+        <v>127.6935806274414</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>21.15464401245117</v>
+        <v>893.8550643920898</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1276950836181676</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.38848304748535</v>
+        <v>146.4966125488281</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>20.38848304748535</v>
+        <v>878.9796752929688</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>112.8477172851562</v>
       </c>
       <c r="H4" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.33896446228028</v>
+        <v>149.0125579833984</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>21.33896446228028</v>
+        <v>894.0753479003906</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9504814147949254</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.99571418762207</v>
+        <v>146.5163421630859</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>21.99571418762207</v>
+        <v>879.0980529785156</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>58.13321358816967</v>
       </c>
       <c r="H6" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-04-12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.81615829467773</v>
+        <v>157.96142578125</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>21.81615829467773</v>
+        <v>947.7685546875</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>126.803715297154</v>
       </c>
       <c r="H7" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="8">
@@ -778,446 +778,446 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.90593719482422</v>
+        <v>161.5823822021484</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>21.90593719482422</v>
+        <v>323.1647644042969</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.5367431640625e-07</v>
+        <v>49.50981794084822</v>
       </c>
       <c r="H8" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.86104774475098</v>
+        <v>172.630126953125</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>21.86104774475098</v>
+        <v>863.150634765625</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04488849639892578</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.77126884460449</v>
+        <v>175.6673736572266</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>21.77126884460449</v>
+        <v>878.3368682861328</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.18623352050781</v>
       </c>
       <c r="H10" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21.72637939453125</v>
+        <v>168.4748687744141</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>21.72637939453125</v>
+        <v>842.3743438720703</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04488945007323863</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.68148994445801</v>
+        <v>191.7887878417969</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>21.68148994445801</v>
+        <v>958.9439392089844</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>116.5695953369141</v>
       </c>
       <c r="H12" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.84861183166504</v>
+        <v>183.823959350586</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>22.84861183166504</v>
+        <v>919.1197967529298</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.167121887207031</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.1303825378418</v>
+        <v>182.6748046875</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1303825378418</v>
+        <v>913.3740234375</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.74577331542983</v>
       </c>
       <c r="H14" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.22016334533692</v>
+        <v>171.3521881103516</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>22.22016334533692</v>
+        <v>856.7609405517578</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08978080749511719</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.53438758850098</v>
+        <v>169.9833374023438</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>22.53438758850098</v>
+        <v>849.9166870117188</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-6.844253540039062</v>
       </c>
       <c r="H16" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.61172676086425</v>
+        <v>168.297119140625</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>23.61172676086425</v>
+        <v>841.485595703125</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.077339172363278</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="18">
@@ -1228,41 +1228,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26.1191520690918</v>
+        <v>173.6236572265625</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>26.1191520690918</v>
+        <v>868.1182861328125</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="19">
@@ -1273,41 +1273,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25.78490257263184</v>
+        <v>168.0094757080078</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>25.78490257263184</v>
+        <v>840.0473785400391</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3342494964599609</v>
+        <v>-14.75456237792969</v>
       </c>
       <c r="H19" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="20">
@@ -1318,41 +1318,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26.54890060424805</v>
+        <v>167.6524047851562</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>26.54890060424805</v>
+        <v>838.2620239257812</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="21">
@@ -1363,131 +1363,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32.54999923706055</v>
+        <v>167.9300994873047</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>32.54999923706055</v>
+        <v>839.6504974365234</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.0010986328125</v>
+        <v>-6.881484985351562</v>
       </c>
       <c r="H21" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32.59999847412109</v>
+        <v>167.9300994873047</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>32.59999847412109</v>
+        <v>839.6504974365234</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-6.881484985351562</v>
       </c>
       <c r="H22" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33.45000076293945</v>
+        <v>236.7990112304688</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>33.45000076293945</v>
+        <v>947.196044921875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8500022888183594</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="24">
@@ -1498,86 +1498,401 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.29999923706055</v>
+        <v>222.6529998779297</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>30.29999923706055</v>
+        <v>890.6119995117188</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30.39999961853028</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.79999923706055</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.584102630615234</v>
+        <v>467.064743041992</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3500003814697337</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>9.934103012084968</v>
+        <v>467.0647430419922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>226.983413696289</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>907.9336547851561</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-10.97036743164074</v>
+      </c>
+      <c r="H25" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>226.6051330566407</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>906.4205322265626</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-12.48348999023426</v>
+      </c>
+      <c r="H26" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>30.14999961853028</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>30.14999961853028</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>30.39999961853028</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>60.79999923706055</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9.584102630615234</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.3500003814697337</v>
-      </c>
-      <c r="M25" t="n">
-        <v>9.934103012084968</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>213.3703918457031</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>853.4815673828125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>202.4975433349609</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>809.9901733398436</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-43.49139404296886</v>
+      </c>
+      <c r="H28" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>200.5776977539062</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>802.310791015625</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>210.8261260986328</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>843.3045043945312</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40.99371337890625</v>
+      </c>
+      <c r="H30" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>212.8019714355469</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>851.2078857421875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>467.0647430419922</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>226.5703582763672</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>906.2814331054688</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55.07354736328125</v>
+      </c>
+      <c r="H32" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>467.064743041992</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>467.0647430419922</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>持股數(收盤後)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>單筆實現損益</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>期末價</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>期末持股</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>最終市值</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>累計實現損益</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>未實現損益</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>最終資金池</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>總報酬</t>
         </is>
@@ -508,41 +518,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>127.6837387084961</v>
+        <v>90.64456176757812</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
-        <v>893.7861709594727</v>
+        <v>9970.901794433594</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>20029.09820556641</v>
       </c>
       <c r="G2" t="n">
+        <v>110</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K2" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M2" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N2" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="3">
@@ -553,176 +569,200 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127.6935806274414</v>
+        <v>88.93936920166016</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
-        <v>893.8550643920898</v>
+        <v>9961.209350585938</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>10067.88885498047</v>
       </c>
       <c r="G3" t="n">
+        <v>222</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K3" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M3" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N3" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O3" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>146.4966125488281</v>
+        <v>89.47784423828125</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>878.9796752929688</v>
+        <v>9932.040710449219</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>135.84814453125</v>
       </c>
       <c r="G4" t="n">
-        <v>112.8477172851562</v>
+        <v>333</v>
       </c>
       <c r="H4" t="n">
-        <v>277.5499877929688</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M4" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>149.0125579833984</v>
+        <v>90.64456176757812</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
-        <v>894.0753479003906</v>
+        <v>9970.901794433594</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>10106.74993896484</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="H5" t="n">
-        <v>277.5499877929688</v>
+        <v>105.8666469814541</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K5" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M5" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N5" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>146.5163421630859</v>
+        <v>93.78570556640624</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>879.0980529785156</v>
+        <v>9941.284790039061</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>165.4651489257831</v>
       </c>
       <c r="G6" t="n">
-        <v>58.13321358816967</v>
+        <v>329</v>
       </c>
       <c r="H6" t="n">
-        <v>277.5499877929688</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K6" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M6" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N6" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O6" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="7">
@@ -733,176 +773,200 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-04-12</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>157.96142578125</v>
+        <v>91.9907684326172</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
-        <v>947.7685546875</v>
+        <v>9935.002990722658</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>10100.46813964844</v>
       </c>
       <c r="G7" t="n">
-        <v>126.803715297154</v>
+        <v>221</v>
       </c>
       <c r="H7" t="n">
-        <v>277.5499877929688</v>
+        <v>106.5429244916156</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K7" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M7" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N7" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O7" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>161.5823822021484</v>
+        <v>92.43950653076172</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>323.1647644042969</v>
+        <v>9983.466705322266</v>
       </c>
       <c r="F8" t="n">
+        <v>117.0014343261755</v>
+      </c>
+      <c r="G8" t="n">
+        <v>329</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>49.50981794084822</v>
-      </c>
-      <c r="H8" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M8" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N8" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O8" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>172.630126953125</v>
+        <v>100.6689071655273</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>863.150634765625</v>
+        <v>9966.221809387207</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>10083.22324371338</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H9" t="n">
-        <v>277.5499877929688</v>
+        <v>910.1567468414836</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K9" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M9" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N9" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O9" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>175.6673736572266</v>
+        <v>100.1984939575195</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E10" t="n">
-        <v>878.3368682861328</v>
+        <v>9919.650901794432</v>
       </c>
       <c r="F10" t="n">
+        <v>163.5723419189508</v>
+      </c>
+      <c r="G10" t="n">
+        <v>329</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
-        <v>15.18623352050781</v>
-      </c>
-      <c r="H10" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K10" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M10" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N10" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O10" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="11">
@@ -913,41 +977,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>168.4748687744141</v>
+        <v>101.1393280029297</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>842.3743438720703</v>
+        <v>101.1393280029297</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>62.4330139160211</v>
       </c>
       <c r="G11" t="n">
+        <v>330</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K11" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M11" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N11" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O11" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="12">
@@ -958,41 +1028,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>191.7887878417969</v>
+        <v>97.37599945068359</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>958.9439392089844</v>
+        <v>9932.351943969727</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9994.784957885748</v>
       </c>
       <c r="G12" t="n">
-        <v>116.5695953369141</v>
+        <v>228</v>
       </c>
       <c r="H12" t="n">
-        <v>277.5499877929688</v>
+        <v>331.9471044283607</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K12" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M12" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N12" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="13">
@@ -1003,41 +1079,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>183.823959350586</v>
+        <v>91.26060485839844</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
-        <v>919.1197967529298</v>
+        <v>9947.40592956543</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>47.37902832031796</v>
       </c>
       <c r="G13" t="n">
+        <v>337</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K13" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M13" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N13" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O13" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="14">
@@ -1048,266 +1130,302 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>182.6748046875</v>
+        <v>95.02392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E14" t="n">
-        <v>913.3740234375</v>
+        <v>9977.51220703125</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>10024.89123535157</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.74577331542983</v>
+        <v>232</v>
       </c>
       <c r="H14" t="n">
-        <v>277.5499877929688</v>
+        <v>191.9065351785113</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K14" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M14" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N14" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>171.3521881103516</v>
+        <v>95.4943389892578</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>856.7609405517578</v>
+        <v>9931.411254882811</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>19956.30249023438</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>277.5499877929688</v>
+        <v>239.0018275239079</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M15" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N15" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>169.9833374023438</v>
+        <v>94.5535125732422</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E16" t="n">
-        <v>849.9166870117188</v>
+        <v>9928.118820190432</v>
       </c>
       <c r="F16" t="n">
+        <v>10028.18367004395</v>
+      </c>
+      <c r="G16" t="n">
+        <v>233</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
-        <v>-6.844253540039062</v>
-      </c>
-      <c r="H16" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K16" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M16" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N16" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O16" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>168.297119140625</v>
+        <v>95.02392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E17" t="n">
-        <v>841.485595703125</v>
+        <v>9977.51220703125</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>20005.6958770752</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>277.5499877929688</v>
+        <v>127.683871764528</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K17" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M17" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N17" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O17" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>173.6236572265625</v>
+        <v>161.8229217529297</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
-        <v>868.1182861328125</v>
+        <v>9871.198226928711</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>29876.89410400391</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H18" t="n">
-        <v>277.5499877929688</v>
+        <v>4148.917003583282</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K18" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M18" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N18" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O18" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>168.0094757080078</v>
+        <v>191.061050415039</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
-        <v>840.0473785400391</v>
+        <v>9935.174621582029</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>19941.71948242188</v>
       </c>
       <c r="G19" t="n">
-        <v>-14.75456237792969</v>
+        <v>119</v>
       </c>
       <c r="H19" t="n">
-        <v>277.5499877929688</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K19" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M19" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N19" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O19" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="20">
@@ -1318,41 +1436,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>167.6524047851562</v>
+        <v>169.8320465087891</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>838.2620239257812</v>
+        <v>9850.258697509766</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>10091.46078491211</v>
       </c>
       <c r="G20" t="n">
+        <v>177</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K20" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M20" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N20" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O20" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="21">
@@ -1363,86 +1487,98 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>167.9300994873047</v>
+        <v>173.2093811035156</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>839.6504974365234</v>
+        <v>9872.934722900391</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>19964.3955078125</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.881484985351562</v>
+        <v>120</v>
       </c>
       <c r="H21" t="n">
-        <v>277.5499877929688</v>
+        <v>1477.330051006497</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K21" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M21" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N21" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O21" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>167.9300994873047</v>
+        <v>203.1229858398437</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>839.6504974365234</v>
+        <v>9953.026306152342</v>
       </c>
       <c r="F22" t="n">
+        <v>10011.36920166016</v>
+      </c>
+      <c r="G22" t="n">
+        <v>169</v>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
-        <v>-6.881484985351562</v>
-      </c>
-      <c r="H22" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K22" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M22" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N22" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O22" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="23">
@@ -1453,86 +1589,98 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>236.7990112304688</v>
+        <v>189.6136169433593</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>947.196044921875</v>
+        <v>9859.908081054686</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>151.4611206054724</v>
       </c>
       <c r="G23" t="n">
+        <v>221</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K23" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M23" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N23" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O23" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>222.6529998779297</v>
+        <v>171.2794799804688</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
-        <v>890.6119995117188</v>
+        <v>9934.209838867188</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>10085.67095947266</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="H24" t="n">
-        <v>277.5499877929688</v>
+        <v>95.7586520379474</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K24" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M24" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N24" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O24" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="25">
@@ -1543,86 +1691,98 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>226.983413696289</v>
+        <v>167.9021301269531</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
-        <v>907.9336547851561</v>
+        <v>9906.225677490234</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>19991.89663696289</v>
       </c>
       <c r="G25" t="n">
-        <v>-10.97036743164074</v>
+        <v>104</v>
       </c>
       <c r="H25" t="n">
-        <v>277.5499877929688</v>
+        <v>-101.8539780774409</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K25" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M25" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N25" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O25" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>226.6051330566407</v>
+        <v>160.1824951171875</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
-        <v>906.4205322265626</v>
+        <v>9931.314697265625</v>
       </c>
       <c r="F26" t="n">
+        <v>10060.58193969727</v>
+      </c>
+      <c r="G26" t="n">
+        <v>166</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
-        <v>-12.48348999023426</v>
-      </c>
-      <c r="H26" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K26" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M26" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N26" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O26" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="27">
@@ -1633,41 +1793,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>213.3703918457031</v>
+        <v>146.6731262207031</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>853.4815673828125</v>
+        <v>9973.772583007812</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>86.80935668945676</v>
       </c>
       <c r="G27" t="n">
+        <v>234</v>
+      </c>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K27" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M27" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N27" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O27" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="28">
@@ -1678,221 +1844,149 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>202.4975433349609</v>
+        <v>213</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>809.9901733398436</v>
+        <v>9798</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9884.809356689457</v>
       </c>
       <c r="G28" t="n">
-        <v>-43.49139404296886</v>
+        <v>188</v>
       </c>
       <c r="H28" t="n">
-        <v>277.5499877929688</v>
+        <v>2417.074319071572</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K28" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M28" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N28" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O28" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>200.5776977539062</v>
+        <v>241</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E29" t="n">
-        <v>802.310791015625</v>
+        <v>9881</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>19765.80935668946</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H29" t="n">
-        <v>277.5499877929688</v>
+        <v>3302.34884960727</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K29" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M29" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N29" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O29" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>210.8261260986328</v>
+        <v>231</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>843.3045043945312</v>
+        <v>9933</v>
       </c>
       <c r="F30" t="n">
+        <v>9832.809356689457</v>
+      </c>
+      <c r="G30" t="n">
+        <v>190</v>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
-        <v>40.99371337890625</v>
-      </c>
-      <c r="H30" t="n">
-        <v>277.5499877929688</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K30" t="n">
-        <v>467.064743041992</v>
+        <v>42845</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>13352.68055443899</v>
       </c>
       <c r="M30" t="n">
-        <v>467.0647430419922</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-08-06</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>212.8019714355469</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>851.2078857421875</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>277.5499877929688</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>467.064743041992</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>467.0647430419922</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>226.5703582763672</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>906.2814331054688</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>55.07354736328125</v>
-      </c>
-      <c r="H32" t="n">
-        <v>277.5499877929688</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>467.064743041992</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>467.0647430419922</v>
+        <v>9325.128802250461</v>
+      </c>
+      <c r="N30" t="n">
+        <v>52677.80935668945</v>
+      </c>
+      <c r="O30" t="n">
+        <v>22677.80935668945</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,98 +518,98 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.64456176757812</v>
+        <v>124.4629440307617</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>9970.901794433594</v>
+        <v>995.7035522460938</v>
       </c>
       <c r="F2" t="n">
-        <v>20029.09820556641</v>
+        <v>99004.29644775391</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J2" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M2" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O2" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88.93936920166016</v>
+        <v>120.6445770263672</v>
       </c>
       <c r="D3" t="n">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>9961.209350585938</v>
+        <v>965.1566162109376</v>
       </c>
       <c r="F3" t="n">
-        <v>10067.88885498047</v>
+        <v>99969.45306396484</v>
       </c>
       <c r="G3" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-30.54693603515614</v>
       </c>
       <c r="I3" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J3" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M3" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O3" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="4">
@@ -620,47 +620,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>89.47784423828125</v>
+        <v>156.4970397949219</v>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>9932.040710449219</v>
+        <v>938.9822387695312</v>
       </c>
       <c r="F4" t="n">
-        <v>135.84814453125</v>
+        <v>99030.47082519531</v>
       </c>
       <c r="G4" t="n">
-        <v>333</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J4" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M4" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O4" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="5">
@@ -671,47 +671,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90.64456176757812</v>
+        <v>165.3854827880859</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>9970.901794433594</v>
+        <v>992.3128967285156</v>
       </c>
       <c r="F5" t="n">
-        <v>10106.74993896484</v>
+        <v>100022.7837219238</v>
       </c>
       <c r="G5" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>105.8666469814541</v>
+        <v>53.33065795898438</v>
       </c>
       <c r="I5" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J5" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M5" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O5" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="6">
@@ -722,47 +722,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93.78570556640624</v>
+        <v>160.4819488525391</v>
       </c>
       <c r="D6" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>9941.284790039061</v>
+        <v>962.8916931152344</v>
       </c>
       <c r="F6" t="n">
-        <v>165.4651489257831</v>
+        <v>99059.89202880859</v>
       </c>
       <c r="G6" t="n">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J6" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M6" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O6" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="7">
@@ -773,47 +773,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91.9907684326172</v>
+        <v>154.6075744628906</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9935.002990722658</v>
+        <v>927.6454467773438</v>
       </c>
       <c r="F7" t="n">
-        <v>10100.46813964844</v>
+        <v>99987.53747558594</v>
       </c>
       <c r="G7" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5429244916156</v>
+        <v>-35.24624633789062</v>
       </c>
       <c r="I7" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J7" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M7" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O7" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="8">
@@ -824,47 +824,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92.43950653076172</v>
+        <v>140.5543823242188</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>9983.466705322266</v>
+        <v>983.8806762695312</v>
       </c>
       <c r="F8" t="n">
-        <v>117.0014343261755</v>
+        <v>99003.65679931641</v>
       </c>
       <c r="G8" t="n">
-        <v>329</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J8" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M8" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O8" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="9">
@@ -875,47 +875,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100.6689071655273</v>
+        <v>142.7838287353516</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>9966.221809387207</v>
+        <v>999.4868011474609</v>
       </c>
       <c r="F9" t="n">
-        <v>10083.22324371338</v>
+        <v>100003.1436004639</v>
       </c>
       <c r="G9" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>910.1567468414836</v>
+        <v>15.60612487792969</v>
       </c>
       <c r="I9" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J9" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M9" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O9" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="10">
@@ -926,251 +926,251 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100.1984939575195</v>
+        <v>132.9329833984375</v>
       </c>
       <c r="D10" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>9919.650901794432</v>
+        <v>930.5308837890625</v>
       </c>
       <c r="F10" t="n">
-        <v>163.5723419189508</v>
+        <v>99072.6127166748</v>
       </c>
       <c r="G10" t="n">
-        <v>329</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J10" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M10" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O10" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>101.1393280029297</v>
+        <v>134.2784881591797</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>101.1393280029297</v>
+        <v>939.9494171142578</v>
       </c>
       <c r="F11" t="n">
-        <v>62.4330139160211</v>
+        <v>100012.5621337891</v>
       </c>
       <c r="G11" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.418533325195312</v>
       </c>
       <c r="I11" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J11" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M11" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O11" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>97.37599945068359</v>
+        <v>154.7743988037109</v>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>9932.351943969727</v>
+        <v>928.6463928222656</v>
       </c>
       <c r="F12" t="n">
-        <v>9994.784957885748</v>
+        <v>99083.9157409668</v>
       </c>
       <c r="G12" t="n">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>331.9471044283607</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J12" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M12" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O12" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>91.26060485839844</v>
+        <v>151.3026123046875</v>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>9947.40592956543</v>
+        <v>907.815673828125</v>
       </c>
       <c r="F13" t="n">
-        <v>47.37902832031796</v>
+        <v>99991.73141479492</v>
       </c>
       <c r="G13" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-20.83071899414062</v>
       </c>
       <c r="I13" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J13" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M13" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O13" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>95.02392578125</v>
+        <v>151.9320831298828</v>
       </c>
       <c r="D14" t="n">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>9977.51220703125</v>
+        <v>911.5924987792969</v>
       </c>
       <c r="F14" t="n">
-        <v>10024.89123535157</v>
+        <v>99080.13891601562</v>
       </c>
       <c r="G14" t="n">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>191.9065351785113</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J14" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M14" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O14" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="15">
@@ -1181,47 +1181,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95.4943389892578</v>
+        <v>147.9488525390625</v>
       </c>
       <c r="D15" t="n">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>9931.411254882811</v>
+        <v>887.693115234375</v>
       </c>
       <c r="F15" t="n">
-        <v>19956.30249023438</v>
+        <v>99967.83203125</v>
       </c>
       <c r="G15" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>239.0018275239079</v>
+        <v>-23.89938354492188</v>
       </c>
       <c r="I15" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M15" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O15" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="16">
@@ -1232,47 +1232,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>94.5535125732422</v>
+        <v>143.6902923583984</v>
       </c>
       <c r="D16" t="n">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>9928.118820190432</v>
+        <v>862.1417541503906</v>
       </c>
       <c r="F16" t="n">
-        <v>10028.18367004395</v>
+        <v>99105.69027709961</v>
       </c>
       <c r="G16" t="n">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J16" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M16" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O16" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="17">
@@ -1283,149 +1283,149 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>95.02392578125</v>
+        <v>137.7794342041016</v>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>9977.51220703125</v>
+        <v>826.6766052246094</v>
       </c>
       <c r="F17" t="n">
-        <v>20005.6958770752</v>
+        <v>99932.36688232422</v>
       </c>
       <c r="G17" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>127.683871764528</v>
+        <v>-35.46514892578125</v>
       </c>
       <c r="I17" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J17" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M17" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O17" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>161.8229217529297</v>
+        <v>140.6315765380859</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>9871.198226928711</v>
+        <v>984.4210357666016</v>
       </c>
       <c r="F18" t="n">
-        <v>29876.89410400391</v>
+        <v>98947.94584655762</v>
       </c>
       <c r="G18" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>4148.917003583282</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J18" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M18" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O18" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>191.061050415039</v>
+        <v>136.0976104736328</v>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>9935.174621582029</v>
+        <v>952.6832733154297</v>
       </c>
       <c r="F19" t="n">
-        <v>19941.71948242188</v>
+        <v>99900.62911987305</v>
       </c>
       <c r="G19" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-31.73776245117188</v>
       </c>
       <c r="I19" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J19" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M19" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O19" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="20">
@@ -1436,47 +1436,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>169.8320465087891</v>
+        <v>144.6871948242188</v>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>9850.258697509766</v>
+        <v>868.1231689453125</v>
       </c>
       <c r="F20" t="n">
-        <v>10091.46078491211</v>
+        <v>99032.50595092773</v>
       </c>
       <c r="G20" t="n">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J20" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M20" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O20" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="21">
@@ -1487,47 +1487,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>173.2093811035156</v>
+        <v>142.0765838623047</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>9872.934722900391</v>
+        <v>852.4595031738281</v>
       </c>
       <c r="F21" t="n">
-        <v>19964.3955078125</v>
+        <v>99884.96545410156</v>
       </c>
       <c r="G21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1477.330051006497</v>
+        <v>-15.66366577148438</v>
       </c>
       <c r="I21" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J21" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M21" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O21" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="22">
@@ -1538,149 +1538,149 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>203.1229858398437</v>
+        <v>127.6837387084961</v>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>9953.026306152342</v>
+        <v>893.7861709594727</v>
       </c>
       <c r="F22" t="n">
-        <v>10011.36920166016</v>
+        <v>98991.17928314209</v>
       </c>
       <c r="G22" t="n">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J22" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M22" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O22" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>189.6136169433593</v>
+        <v>123.2112045288086</v>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>9859.908081054686</v>
+        <v>862.4784317016602</v>
       </c>
       <c r="F23" t="n">
-        <v>151.4611206054724</v>
+        <v>99853.65771484375</v>
       </c>
       <c r="G23" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-31.3077392578125</v>
       </c>
       <c r="I23" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J23" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M23" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O23" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171.2794799804688</v>
+        <v>127.6935806274414</v>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>9934.209838867188</v>
+        <v>893.8550643920898</v>
       </c>
       <c r="F24" t="n">
-        <v>10085.67095947266</v>
+        <v>98959.80265045166</v>
       </c>
       <c r="G24" t="n">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>95.7586520379474</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J24" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M24" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O24" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="25">
@@ -1691,98 +1691,98 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>167.9021301269531</v>
+        <v>146.4966125488281</v>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>9906.225677490234</v>
+        <v>878.9796752929688</v>
       </c>
       <c r="F25" t="n">
-        <v>19991.89663696289</v>
+        <v>99838.78232574463</v>
       </c>
       <c r="G25" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>-101.8539780774409</v>
+        <v>112.8181915283203</v>
       </c>
       <c r="I25" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J25" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M25" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O25" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>160.1824951171875</v>
+        <v>146.9208679199219</v>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>9931.314697265625</v>
+        <v>146.9208679199219</v>
       </c>
       <c r="F26" t="n">
-        <v>10060.58193969727</v>
+        <v>99985.70319366455</v>
       </c>
       <c r="G26" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>19.22728729248047</v>
       </c>
       <c r="I26" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J26" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M26" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O26" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="27">
@@ -1793,47 +1793,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>146.6731262207031</v>
+        <v>149.0125579833984</v>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>9973.772583007812</v>
+        <v>894.0753479003906</v>
       </c>
       <c r="F27" t="n">
-        <v>86.80935668945676</v>
+        <v>99091.62784576416</v>
       </c>
       <c r="G27" t="n">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J27" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M27" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O27" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="28">
@@ -1844,149 +1844,1322 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>213</v>
+        <v>146.5163421630859</v>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>9798</v>
+        <v>879.0980529785156</v>
       </c>
       <c r="F28" t="n">
-        <v>9884.809356689457</v>
+        <v>99970.72589874268</v>
       </c>
       <c r="G28" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2417.074319071572</v>
+        <v>-14.977294921875</v>
       </c>
       <c r="I28" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J28" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M28" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O28" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>241</v>
+        <v>172.630126953125</v>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>9881</v>
+        <v>863.150634765625</v>
       </c>
       <c r="F29" t="n">
-        <v>19765.80935668946</v>
+        <v>99107.57526397705</v>
       </c>
       <c r="G29" t="n">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>3302.34884960727</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>225.5</v>
+        <v>277.5499877929688</v>
       </c>
       <c r="J29" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>42845</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>13352.68055443899</v>
+        <v>273.2401046752924</v>
       </c>
       <c r="M29" t="n">
-        <v>9325.128802250461</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>52677.80935668945</v>
+        <v>100273.2401046753</v>
       </c>
       <c r="O29" t="n">
-        <v>22677.80935668945</v>
+        <v>273.240104675293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>180.9603576660156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>904.801788330078</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100012.3770523071</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>41.65115356445298</v>
+      </c>
+      <c r="I30" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O30" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>231</v>
-      </c>
-      <c r="D30" t="n">
-        <v>43</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9933</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9832.809356689457</v>
-      </c>
-      <c r="G30" t="n">
-        <v>190</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>190</v>
-      </c>
-      <c r="K30" t="n">
-        <v>42845</v>
-      </c>
-      <c r="L30" t="n">
-        <v>13352.68055443899</v>
-      </c>
-      <c r="M30" t="n">
-        <v>9325.128802250461</v>
-      </c>
-      <c r="N30" t="n">
-        <v>52677.80935668945</v>
-      </c>
-      <c r="O30" t="n">
-        <v>22677.80935668945</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>168.4748687744141</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>842.3743438720703</v>
+      </c>
+      <c r="F31" t="n">
+        <v>99170.00270843506</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O31" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>183.9032287597656</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>919.516143798828</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100089.5188522339</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>77.14179992675767</v>
+      </c>
+      <c r="I32" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O32" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>183.823959350586</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>919.1197967529298</v>
+      </c>
+      <c r="F33" t="n">
+        <v>99170.39905548096</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O33" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>186.28076171875</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>931.40380859375</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100101.8028640747</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12.28401184082017</v>
+      </c>
+      <c r="I34" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O34" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>171.3521881103516</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>856.7609405517578</v>
+      </c>
+      <c r="F35" t="n">
+        <v>99245.04192352295</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O35" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>169.9833374023438</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>849.9166870117188</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100094.9586105347</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-6.844253540039062</v>
+      </c>
+      <c r="I36" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O36" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>168.297119140625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>841.485595703125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>99253.47301483154</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O37" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>173.6236572265625</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>868.1182861328125</v>
+      </c>
+      <c r="F38" t="n">
+        <v>98385.35472869873</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O38" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>168.0094757080078</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>840.0473785400391</v>
+      </c>
+      <c r="F39" t="n">
+        <v>99225.40210723877</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-14.75456237792969</v>
+      </c>
+      <c r="I39" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O39" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>166.640625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>833.203125</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100058.6052322388</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-21.59881591796875</v>
+      </c>
+      <c r="I40" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O40" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>167.6524047851562</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>838.2620239257812</v>
+      </c>
+      <c r="F41" t="n">
+        <v>99220.34320831299</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O41" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>208.2654724121093</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>833.0618896484374</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100053.4050979614</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>162.4522705078124</v>
+      </c>
+      <c r="I42" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O42" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>206.0902557373047</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>206.0902557373047</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100259.4953536987</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>38.43785095214844</v>
+      </c>
+      <c r="I43" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O43" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>236.7990112304688</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>947.196044921875</v>
+      </c>
+      <c r="F44" t="n">
+        <v>99312.29930877686</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O44" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>227.2322845458984</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>908.9291381835938</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100221.2284469604</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-38.26690673828125</v>
+      </c>
+      <c r="I45" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O45" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>222.6529998779297</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>890.6119995117188</v>
+      </c>
+      <c r="F46" t="n">
+        <v>99330.61644744873</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O46" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>226.983413696289</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>907.9336547851561</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100238.5501022339</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17.32165527343739</v>
+      </c>
+      <c r="I47" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O47" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>213.3703918457031</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>853.4815673828125</v>
+      </c>
+      <c r="F48" t="n">
+        <v>99385.06853485107</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O48" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>202.4975433349609</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>809.9901733398436</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100195.0587081909</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-43.49139404296886</v>
+      </c>
+      <c r="I49" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O49" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>200.5776977539062</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>802.310791015625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>99392.74791717529</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O50" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>207.1339111328125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>828.53564453125</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100221.2835617065</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>26.224853515625</v>
+      </c>
+      <c r="I51" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O51" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>212.8019714355469</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>851.2078857421875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>99370.07567596436</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O52" t="n">
+        <v>273.240104675293</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>225.7911071777344</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>903.1644287109376</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>51.95654296875011</v>
+      </c>
+      <c r="I53" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>273.2401046752924</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>100273.2401046753</v>
+      </c>
+      <c r="O53" t="n">
+        <v>273.240104675293</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,113 +478,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.19404602050781</v>
+        <v>188.9496459960937</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>994.2690124511719</v>
+        <v>944.7482299804686</v>
       </c>
       <c r="E2" t="n">
-        <v>61.79999923706055</v>
+        <v>107.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1359.599983215332</v>
+        <v>537.5</v>
       </c>
       <c r="G2" t="n">
-        <v>365.3309707641602</v>
+        <v>-407.2482299804686</v>
       </c>
       <c r="H2" t="n">
-        <v>36.74367461815083</v>
+        <v>-43.10653537703774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.91871643066406</v>
+        <v>172.5611572265625</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>997.9679107666016</v>
+        <v>862.8057861328125</v>
       </c>
       <c r="E3" t="n">
-        <v>61.79999923706055</v>
+        <v>107.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1544.999980926514</v>
+        <v>537.5</v>
       </c>
       <c r="G3" t="n">
-        <v>547.0320701599121</v>
+        <v>-325.3057861328125</v>
       </c>
       <c r="H3" t="n">
-        <v>54.81459516465841</v>
+        <v>-37.70324577804093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.90000152587891</v>
+        <v>168.2230224609375</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>990.4000244140625</v>
+        <v>841.1151123046875</v>
       </c>
       <c r="E4" t="n">
-        <v>61.79999923706055</v>
+        <v>107.5</v>
       </c>
       <c r="F4" t="n">
-        <v>988.7999877929688</v>
+        <v>537.5</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.60003662109375</v>
+        <v>-303.6151123046875</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1615545821538483</v>
+        <v>-36.09673727924951</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.34999847412109</v>
+        <v>137.8561096191406</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>981.5999755859374</v>
+        <v>964.9927673339844</v>
       </c>
       <c r="E5" t="n">
-        <v>61.79999923706055</v>
+        <v>107.5</v>
       </c>
       <c r="F5" t="n">
-        <v>988.7999877929688</v>
+        <v>752.5</v>
       </c>
       <c r="G5" t="n">
-        <v>7.200012207031364</v>
+        <v>-212.4927673339844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7334975943467732</v>
+        <v>-22.02014093028332</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>752.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-206.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-21.53284671532846</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>906.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>752.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-154</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-16.98841698841699</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>980</v>
+      </c>
+      <c r="E8" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>860</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-12.24489795918367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>944</v>
+      </c>
+      <c r="E9" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>860</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-8.898305084745763</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>114</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>860</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-5.701754385964912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>967.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>967.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,281 +478,1037 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2022-11-27</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.9496459960937</v>
+        <v>26.24074363708496</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>944.7482299804686</v>
+        <v>997.1482582092285</v>
       </c>
       <c r="E2" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F2" t="n">
-        <v>537.5</v>
+        <v>2348.399971008301</v>
       </c>
       <c r="G2" t="n">
-        <v>-407.2482299804686</v>
+        <v>1351.251712799072</v>
       </c>
       <c r="H2" t="n">
-        <v>-43.10653537703774</v>
+        <v>135.511615416726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2022-12-25</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.5611572265625</v>
+        <v>25.49493980407715</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>862.8057861328125</v>
+        <v>994.3026523590088</v>
       </c>
       <c r="E3" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F3" t="n">
-        <v>537.5</v>
+        <v>2410.199970245361</v>
       </c>
       <c r="G3" t="n">
-        <v>-325.3057861328125</v>
+        <v>1415.897317886353</v>
       </c>
       <c r="H3" t="n">
-        <v>-37.70324577804093</v>
+        <v>142.4010400180568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.2230224609375</v>
+        <v>28.39182090759277</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>841.1151123046875</v>
+        <v>993.7137317657471</v>
       </c>
       <c r="E4" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F4" t="n">
-        <v>537.5</v>
+        <v>2162.999973297119</v>
       </c>
       <c r="G4" t="n">
-        <v>-303.6151123046875</v>
+        <v>1169.286241531372</v>
       </c>
       <c r="H4" t="n">
-        <v>-36.09673727924951</v>
+        <v>117.6683187675838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.8561096191406</v>
+        <v>28.46221351623535</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>964.9927673339844</v>
+        <v>996.1774730682373</v>
       </c>
       <c r="E5" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F5" t="n">
-        <v>752.5</v>
+        <v>2162.999973297119</v>
       </c>
       <c r="G5" t="n">
-        <v>-212.4927673339844</v>
+        <v>1166.822500228882</v>
       </c>
       <c r="H5" t="n">
-        <v>-22.02014093028332</v>
+        <v>117.1299825356476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137</v>
+        <v>28.39182090759277</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>959</v>
+        <v>993.7137317657471</v>
       </c>
       <c r="E6" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F6" t="n">
-        <v>752.5</v>
+        <v>2162.999973297119</v>
       </c>
       <c r="G6" t="n">
-        <v>-206.5</v>
+        <v>1169.286241531372</v>
       </c>
       <c r="H6" t="n">
-        <v>-21.53284671532846</v>
+        <v>117.6683187675838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2023-05-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.5</v>
+        <v>27.81694602966309</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>906.5</v>
+        <v>973.5931110382081</v>
       </c>
       <c r="E7" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F7" t="n">
-        <v>752.5</v>
+        <v>2162.999973297119</v>
       </c>
       <c r="G7" t="n">
-        <v>-154</v>
+        <v>1189.406862258911</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.98841698841699</v>
+        <v>122.16672948626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.5</v>
+        <v>29.64715957641602</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>980</v>
+        <v>978.3562660217285</v>
       </c>
       <c r="E8" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F8" t="n">
-        <v>860</v>
+        <v>2039.399974822998</v>
       </c>
       <c r="G8" t="n">
-        <v>-120</v>
+        <v>1061.04370880127</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.24489795918367</v>
+        <v>108.4516699745555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118</v>
+        <v>30.69132614135743</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>944</v>
+        <v>982.1224365234376</v>
       </c>
       <c r="E9" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F9" t="n">
-        <v>860</v>
+        <v>1977.599975585938</v>
       </c>
       <c r="G9" t="n">
-        <v>-84</v>
+        <v>995.4775390624999</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.898305084745763</v>
+        <v>101.3598205317799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114</v>
+        <v>30.43723678588867</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>912</v>
+        <v>973.9915771484375</v>
       </c>
       <c r="E10" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F10" t="n">
-        <v>860</v>
+        <v>1977.599975585938</v>
       </c>
       <c r="G10" t="n">
-        <v>-52</v>
+        <v>1003.6083984375</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.701754385964912</v>
+        <v>103.040767701069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.5</v>
+        <v>29.92538833618164</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>967.5</v>
+        <v>987.5378150939941</v>
       </c>
       <c r="E11" t="n">
-        <v>107.5</v>
+        <v>61.79999923706055</v>
       </c>
       <c r="F11" t="n">
-        <v>967.5</v>
+        <v>2039.399974822998</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1051.862159729004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>106.5136082539672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>29.19927406311035</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>992.775318145752</v>
+      </c>
+      <c r="E12" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2101.199974060059</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1108.424655914307</v>
+      </c>
+      <c r="H12" t="n">
+        <v>111.6490947805348</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28.8421688079834</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>980.6337394714355</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2101.199974060059</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1120.566234588623</v>
+      </c>
+      <c r="H13" t="n">
+        <v>114.2695982694427</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>31.24667358398437</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>999.8935546874999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1977.599975585938</v>
+      </c>
+      <c r="G14" t="n">
+        <v>977.7064208984376</v>
+      </c>
+      <c r="H14" t="n">
+        <v>97.78105042431277</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31.96088600158692</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>990.7874660491944</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1915.799976348877</v>
+      </c>
+      <c r="G15" t="n">
+        <v>925.0125102996825</v>
+      </c>
+      <c r="H15" t="n">
+        <v>93.36134559596397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>32.6452751159668</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>979.3582534790039</v>
+      </c>
+      <c r="E16" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1853.999977111816</v>
+      </c>
+      <c r="G16" t="n">
+        <v>874.6417236328125</v>
+      </c>
+      <c r="H16" t="n">
+        <v>89.30763798903989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>35.80017471313477</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>966.6047172546387</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1668.599979400635</v>
+      </c>
+      <c r="G17" t="n">
+        <v>701.9952621459961</v>
+      </c>
+      <c r="H17" t="n">
+        <v>72.62485373957317</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>38.34601974487305</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>996.9965133666992</v>
+      </c>
+      <c r="E18" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1606.799980163574</v>
+      </c>
+      <c r="G18" t="n">
+        <v>609.803466796875</v>
+      </c>
+      <c r="H18" t="n">
+        <v>61.1640520925861</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>38.04149627685547</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>989.0789031982422</v>
+      </c>
+      <c r="E19" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1606.799980163574</v>
+      </c>
+      <c r="G19" t="n">
+        <v>617.721076965332</v>
+      </c>
+      <c r="H19" t="n">
+        <v>62.45417579607615</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>40.90404510498047</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24</v>
+      </c>
+      <c r="D20" t="n">
+        <v>981.6970825195312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1483.199981689453</v>
+      </c>
+      <c r="G20" t="n">
+        <v>501.5028991699219</v>
+      </c>
+      <c r="H20" t="n">
+        <v>51.0852999463757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>45.42322540283203</v>
+      </c>
+      <c r="C21" t="n">
+        <v>22</v>
+      </c>
+      <c r="D21" t="n">
+        <v>999.3109588623047</v>
+      </c>
+      <c r="E21" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1359.599983215332</v>
+      </c>
+      <c r="G21" t="n">
+        <v>360.2890243530273</v>
+      </c>
+      <c r="H21" t="n">
+        <v>36.05374494874039</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>44.22286605834961</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22</v>
+      </c>
+      <c r="D22" t="n">
+        <v>972.9030532836914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1359.599983215332</v>
+      </c>
+      <c r="G22" t="n">
+        <v>386.6969299316406</v>
+      </c>
+      <c r="H22" t="n">
+        <v>39.74670740589018</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>44.18613052368164</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>972.0948715209961</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1359.599983215332</v>
+      </c>
+      <c r="G23" t="n">
+        <v>387.5051116943359</v>
+      </c>
+      <c r="H23" t="n">
+        <v>39.86289024321493</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>45.97365951538086</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" t="n">
+        <v>965.446849822998</v>
+      </c>
+      <c r="E24" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1297.799983978271</v>
+      </c>
+      <c r="G24" t="n">
+        <v>332.3531341552734</v>
+      </c>
+      <c r="H24" t="n">
+        <v>34.42479865320458</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>48.00604629516602</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
+        <v>960.1209259033203</v>
+      </c>
+      <c r="E25" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1235.999984741211</v>
+      </c>
+      <c r="G25" t="n">
+        <v>275.8790588378906</v>
+      </c>
+      <c r="H25" t="n">
+        <v>28.73378252623049</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>46.48787689208984</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" t="n">
+        <v>976.2454147338866</v>
+      </c>
+      <c r="E26" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1297.799983978271</v>
+      </c>
+      <c r="G26" t="n">
+        <v>321.5545692443849</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32.93788266673058</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>48.43456649780273</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" t="n">
+        <v>968.6913299560547</v>
+      </c>
+      <c r="E27" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1235.999984741211</v>
+      </c>
+      <c r="G27" t="n">
+        <v>267.3086547851562</v>
+      </c>
+      <c r="H27" t="n">
+        <v>27.59482267661907</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>49.97286987304688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" t="n">
+        <v>999.4573974609376</v>
+      </c>
+      <c r="E28" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1235.999984741211</v>
+      </c>
+      <c r="G28" t="n">
+        <v>236.5425872802733</v>
+      </c>
+      <c r="H28" t="n">
+        <v>23.66710055688174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>46.68354797363281</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21</v>
+      </c>
+      <c r="D29" t="n">
+        <v>980.3545074462891</v>
+      </c>
+      <c r="E29" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1297.799983978271</v>
+      </c>
+      <c r="G29" t="n">
+        <v>317.4454765319824</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32.38068210232352</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>42.88531112670898</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>986.3621559143065</v>
+      </c>
+      <c r="E30" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1421.399982452393</v>
+      </c>
+      <c r="G30" t="n">
+        <v>435.0378265380861</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.10528363538325</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>41.85507202148438</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" t="n">
+        <v>962.6666564941406</v>
+      </c>
+      <c r="E31" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1421.399982452393</v>
+      </c>
+      <c r="G31" t="n">
+        <v>458.733325958252</v>
+      </c>
+      <c r="H31" t="n">
+        <v>47.65235430807135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>44.62306594848633</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>981.7074508666992</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1359.599983215332</v>
+      </c>
+      <c r="G32" t="n">
+        <v>377.8925323486328</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38.49339556453512</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>47.95211029052734</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
+        <v>959.0422058105469</v>
+      </c>
+      <c r="E33" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1235.999984741211</v>
+      </c>
+      <c r="G33" t="n">
+        <v>276.9577789306641</v>
+      </c>
+      <c r="H33" t="n">
+        <v>28.87858086460227</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50.90000152587891</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19</v>
+      </c>
+      <c r="D34" t="n">
+        <v>967.1000289916992</v>
+      </c>
+      <c r="E34" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1174.19998550415</v>
+      </c>
+      <c r="G34" t="n">
+        <v>207.0999565124512</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.41453317175205</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" t="n">
+        <v>983.25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1174.19998550415</v>
+      </c>
+      <c r="G35" t="n">
+        <v>190.9499855041504</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19.42028838079333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17</v>
+      </c>
+      <c r="D36" t="n">
+        <v>969</v>
+      </c>
+      <c r="E36" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1050.599987030029</v>
+      </c>
+      <c r="G36" t="n">
+        <v>81.5999870300293</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.421051293088679</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>62.70000076293945</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>940.5000114440918</v>
+      </c>
+      <c r="E37" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>926.9999885559082</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-13.50002288818359</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1.435409114717071</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>61.90000152587891</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16</v>
+      </c>
+      <c r="D38" t="n">
+        <v>990.4000244140625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="F38" t="n">
+        <v>988.7999877929688</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.60003662109375</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.1615545821538483</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -478,141 +478,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>975.3597412109376</v>
+        <v>406.044677734375</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>975.3597412109376</v>
+        <v>812.08935546875</v>
       </c>
       <c r="E2" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="F2" t="n">
-        <v>1435</v>
+        <v>947.22998046875</v>
       </c>
       <c r="G2" t="n">
-        <v>459.6402587890624</v>
+        <v>135.140625</v>
       </c>
       <c r="H2" t="n">
-        <v>47.12520307824122</v>
+        <v>16.64110286508987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>957.5900268554688</v>
+        <v>398.8816223144531</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>957.5900268554688</v>
+        <v>797.7632446289062</v>
       </c>
       <c r="E3" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="F3" t="n">
-        <v>1435</v>
+        <v>947.22998046875</v>
       </c>
       <c r="G3" t="n">
-        <v>477.4099731445312</v>
+        <v>149.4667358398438</v>
       </c>
       <c r="H3" t="n">
-        <v>49.85536187258013</v>
+        <v>18.73572602475198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>976.9302978515624</v>
+        <v>386.4880676269531</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>976.9302978515624</v>
+        <v>772.9761352539062</v>
       </c>
       <c r="E4" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="F4" t="n">
-        <v>1435</v>
+        <v>947.22998046875</v>
       </c>
       <c r="G4" t="n">
-        <v>458.0697021484376</v>
+        <v>174.2538452148438</v>
       </c>
       <c r="H4" t="n">
-        <v>46.88867805162882</v>
+        <v>22.54323739989787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>855.9297485351562</v>
+        <v>505.7933349609375</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>855.9297485351562</v>
+        <v>505.7933349609375</v>
       </c>
       <c r="E5" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="F5" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="G5" t="n">
-        <v>579.0702514648438</v>
+        <v>-32.1783447265625</v>
       </c>
       <c r="H5" t="n">
-        <v>67.65394618610561</v>
+        <v>-6.361955071837322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.8892822265624</v>
+        <v>507.7297058105469</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>981.8892822265624</v>
+        <v>507.7297058105469</v>
       </c>
       <c r="E6" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="F6" t="n">
-        <v>1435</v>
+        <v>473.614990234375</v>
       </c>
       <c r="G6" t="n">
-        <v>453.1107177734376</v>
+        <v>-34.11471557617188</v>
       </c>
       <c r="H6" t="n">
-        <v>46.14682388078927</v>
+        <v>-6.719070242642325</v>
       </c>
     </row>
   </sheetData>
